--- a/sample/doc/Sub0003aControl.xlsx
+++ b/sample/doc/Sub0003aControl.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5407AF-B0F4-400C-84A4-7C8B3DEAD4AB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr filterPrivacy="true"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC0B8E8-CFD9-4138-8CB5-FB544B46666E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="setting.ini" sheetId="5" r:id="rId1"/>
-    <sheet name="help" sheetId="4" r:id="rId2"/>
-    <sheet name="template-statefunc" sheetId="3" r:id="rId3"/>
-    <sheet name="template-source" sheetId="2" r:id="rId4"/>
-    <sheet name="config" sheetId="6" r:id="rId5"/>
-    <sheet name="state-chart" sheetId="1" r:id="rId6"/>
+    <sheet name="template-source" sheetId="12" r:id="rId15"/>
+    <sheet name="help" sheetId="15" r:id="rId18"/>
+    <sheet name="setting.ini" sheetId="14" r:id="rId17"/>
+    <sheet name="template-statefunc" sheetId="13" r:id="rId16"/>
+    <sheet name="config" sheetId="11" r:id="rId14"/>
+    <sheet name="state-chart" sheetId="1" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames/>
+  <calcPr calcId="125725" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
   <si>
     <t>thumbnail</t>
   </si>
@@ -187,24 +188,6 @@
 state_height=20
 comment_block_height=45
 line_space=-4
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:output=Sub0003aControl.ts_x000D_
-::tempfunc=templatefunc.txt_x000D_
-:enc=utf-8_x000D_
-:lang=typescript_x000D_
-::_x000D_
-import { Sub0003aControlSub } from './Sub0003aControlSub';_x000D_
-_x000D_
-export class Sub0003aControl extends Sub0003aControlSub {_x000D_
-_x000D_
-    public start() {_x000D_
-        this.Goto(this.S_START);_x000D_
-    }_x000D_
-_x000D_
-    $contents2$_x000D_
-}_x000D_
 </t>
   </si>
   <si>
@@ -361,91 +344,471 @@
 @@@</t>
   </si>
   <si>
-    <t xml:space="preserve">[setting]_x000D_
-_x000D_
-converter=psggConverterLib.dll_x000D_
-_x000D_
-viewbat=Sub0003aControl_view.bat_x000D_
-xls=Sub0003aControl.xlsx_x000D_
-sub_src=Sub0003aControlSub.ts_x000D_
-gen_src=Sub0003aControl.ts_x000D_
-_x000D_
-manager_src=state-manager.ts_x000D_
-manager_dir=base_x000D_
-_x000D_
-template_src=template-source.txt_x000D_
-template_func=template-statefunc.txt_x000D_
-_x000D_
-help=help.ini_x000D_
-_x000D_
-[setupinfo]_x000D_
-_x000D_
-lang=typescript_x000D_
-framework=angular_x000D_
-_x000D_
-prefix=Sub0003a_x000D_
-xlsdir=C:\Project\angular\m02\doc_x000D_
-gendir=C:\Project\angular\m02\my-app\src\app\state\src_x000D_
-genrdir=..\my-app\src\app\state\src_x000D_
-_x000D_
+    <t xml:space="preserve">[setting]
+psgg=Sub0003aControl.psgg
+xls=Sub0003aControl.xlsx
+sub_src=
+gen_src=Sub0003aControl.ts
+manager_src=state-manager.ts
+manager_dir=base
+template_src=
+template_func=template-statefunc.txt
+help=help.ini
+[setupinfo]
+lang=typescript
+framework=angular
+prefix=Sub0003a
+xlsdir=C:\Project\angular\m02\doc
+gendir=C:\Project\angular\m02\my-app\src\app\state\src
+genrdir=..\my-app\src\app\state\src
+code_output_start=[SYN-G-GEN OUTPUT START]
+code_output_end=[SYN-G-GEN OUTPUT END]
 [macro]
 ; This section has macro defines for converting.
 ; commentline format  {%0} will be replaced to a comment.
 commentline=// {%0}
 @branch=this.{%0}(this.{%1})
-[jpn]_x000D_
-title=Angular typescript サンプル１_x000D_
-_x000D_
-detail=@@@_x000D_
-ステートマシンを構成するファイルを作成します。_x000D_
-# ドキュメントとビュアー_x000D_
-  フォルダ: _x000D_
-      C:\Project\angular\m02\doc_x000D_
-  ファイル:_x000D_
-      Sub0003aControl.xlsx_x000D_
-      Sub0003aControl_view.bat_x000D_
-# ソース_x000D_
-  フォルダ:_x000D_
-      C:\Project\angular\m02\my-app\src\app\state\src_x000D_
-　ファイル:_x000D_
-      Sub0003aControlSub.ts_x000D_
-      Sub0003aControl.ts_x000D_
-  ※共通管理ソース_x000D_
-  フォルダ:_x000D_
-      C:\Project\angular\m02\my-app\src\app\state\src/base_x000D_
-　ファイル:_x000D_
-      StateManager.ts_x000D_
-_x000D_
-[2018.6.12]_x000D_
-@@@_x000D_
-_x000D_
-[en]_x000D_
-title=Angular typescript sample 1_x000D_
-_x000D_
-detail=@@@_x000D_
-The files to implement a state machine will be created. _x000D_
-# Document and viewer_x000D_
-  Folder: _x000D_
-      C:\Project\angular\m02\doc_x000D_
-  File:_x000D_
-      Sub0003aControl.xlsx_x000D_
-      Sub0003aControl_view.bat_x000D_
-# Source_x000D_
-  Folder:_x000D_
-      C:\Project\angular\m02\my-app\src\app\state\src_x000D_
-　File:_x000D_
-      Sub0003aControlSub.ts_x000D_
-      Sub0003aControl.ts_x000D_
-  ※Common Management Source_x000D_
-  Folder:_x000D_
-      C:\Project\angular\m02\my-app\src\app\state\src/base_x000D_
-  File:_x000D_
-      StateManager.ts _x000D_
-　_x000D_
-[2018.6.12]_x000D_
-@@@_x000D_
+[jpn]
+title=Angular typescript サンプル１
+detail=@@@
+ステートマシンを構成するファイルを作成します。
+# ドキュメントとビュアー
+  フォルダ: 
+      C:\Project\angular\m02\doc
+  ファイル:
+      Sub0003aControl.xlsx
+      Sub0003aControl_view.bat
+# ソース
+  フォルダ:
+      C:\Project\angular\m02\my-app\src\app\state\src
+　ファイル:
+      Sub0003aControlSub.ts
+      Sub0003aControl.ts
+  ※共通管理ソース
+  フォルダ:
+      C:\Project\angular\m02\my-app\src\app\state\src/base
+　ファイル:
+      StateManager.ts
+[2018.6.12]
+@@@
+[en]
+title=Angular typescript sample 1
+detail=@@@
+The files to implement a state machine will be created. 
+# Document and viewer
+  Folder: 
+      C:\Project\angular\m02\doc
+  File:
+      Sub0003aControl.xlsx
+      Sub0003aControl_view.bat
+# Source
+  Folder:
+      C:\Project\angular\m02\my-app\src\app\state\src
+　File:
+      Sub0003aControlSub.ts
+      Sub0003aControl.ts
+  ※Common Management Source
+  Folder:
+      C:\Project\angular\m02\my-app\src\app\state\src/base
+  File:
+      StateManager.ts 
+[2018.6.12]
+@@@
 </t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>!pos</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>38,79</t>
+  </si>
+  <si>
+    <t>1062,342</t>
+  </si>
+  <si>
+    <t>494,350</t>
+  </si>
+  <si>
+    <t>265,81</t>
+  </si>
+  <si>
+    <t>784,346</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/10/06 21:53:52
+; * pssgEditor version : 0.11.18570.66dda587d931ecfe6f599104b25691abff20e215
+psggfile=@@@
+Sub0003aControl.psgg
+@@@
+xlsfile=@@@
+Sub0003aControl.xlsx
+@@@
+guid=@@@
+3b180237-2318-4692-bc27-e03146b7c54a
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Initilized
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":38,"y":79}},{"Key":"S_END","Value":{"x":1062,"y":342}},{"Key":"S_INIT","Value":{"x":265,"y":81}},{"Key":"S_DRAW_CIRCLE","Value":{"x":494,"y":350}},{"Key":"S_DESTROY","Value":{"x":784,"y":346}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+Code %1
+@@@
+label_show=0
+label_text=@@@
+@@@
+option_delete_thisstring=0
+option_delete_br_string=0
+option_delete_bracket_string=0
+option_delete_s_state_string=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=45
+line_space=-4
+</t>
+  </si>
+  <si>
+    <t>/*
+    [[state]]
+    [[state-cmt]]
+*/
+[[state]](bFirst: boolean) {
+    if (bFirst) {
+        this.curstatename = '[[state]]';
+        // this.curstatecmt  = '[[state-cmt]]';
+        [[init]]
+    }
+    [[update]]
+    &lt;&lt;&lt;?wait
+    if (![[wait]]) { return; }
+    &gt;&gt;&gt;
+    [[post_wait]]
+    [[branch]]
+    &lt;&lt;&lt;?nextstate
+    if (!this.HasNextState()) {
+        this.SetNext(this.[[nextstate]]);
+    }
+    &gt;&gt;&gt;
+    &lt;&lt;&lt;?nowait
+    this.NoWait();
+    &gt;&gt;&gt;
+    if (this.HasNextState()) {
+        this.GoNext();
+    }
+}
+</t>
+  </si>
+  <si>
+    <t>; -----
+; 項目説明
+; -----
+[state]
+jpn=@@@
+ステート名を指定する。
+英文字、数字、アンダーバーで構成される。
+先頭は英文字およびアンダーバー。
+@@@
+en=@@@
+Specify a state name.
+The state name consits of alphabet, number and underbar except that the head characther should be alphabet or a underbar.
+@@@
+[thumbnail]
+jpn=@@@
+説明用のイメージを指定する。
+@@@
+en=@@@
+Specify a image for explanation of this state.
+@@@
+[init]
+jpn=@@@
+初期化用処理を指定する。
+@@@
+en=@@@
+Specify a initial process.
+@@@
+[update]
+jpn=@@@
+更新処理を指定する。
+@@@
+en=@@@
+Specify a update process.
+@@@
+[wait]
+jpn=@@@
+待ち条件を指定する。
+true時にループを解除する。
+@@@
+en=@@@
+Specify a waiting condition.
+Release the loop if the condition is true.
+@@@
+[post_wait]
+jpn=@@@
+'wait'後の処理を指定する。
+@@@
+en=@@@
+Specify the post process after 'wait'.
+@@@
+[branch]
+jpn=@@@
+分岐処理を指定する。
+１行に一つの分岐命令を書く。
+GUIにより上書きされるため引数は適当に指定する。
+例）
+br_YES(?);
+br_NO(?);
+br_UNKNOWN(?);
+@@@
+en=@@@
+Specify branch functions.
+Each line has a branch function.
+Specify a tentavie parameter for each branch function because GUI overwrites the parameter.
+i.e)
+br_YES(?);
+br_NO(?);
+br_UNKNOWN(?);
+@@@
+[nextstate]
+jpn=@@@
+次に実行するステートを指定する。
+@@@
+en=@@@
+Specify the next state to be executed.
+@@@
+[nowait]
+jpn=@@@
+次のステートへ同期待ちをせず実行する時に 'yes'を指定する。
+同期待ち時には何も指定しない。
+@@@
+en=@@@
+Specify 'yes' if the next state will be execute without a sync wait.
+Do not specify any word wheh the next state will be execute with a sync wait.
+@@@
+[!dir]
+jpn=@@@
+システムがステートのディレクトリ指定に使用。
+@@@
+en=@@@
+System uses this for the directory path of the state.
+@@@
+[!uuid]
+jpn=@@@
+システムがステートのuuid指定に使用。
+@@@
+en=@@@
+System uses this for the uuid of the state.
+@@@</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/10/06 21:54:34
+; * pssgEditor version : 0.11.18570.66dda587d931ecfe6f599104b25691abff20e215
+psggfile=@@@
+Sub0003aControl.psgg
+@@@
+xlsfile=@@@
+Sub0003aControl.xlsx
+@@@
+guid=@@@
+3b180237-2318-4692-bc27-e03146b7c54a
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Initilized
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":38,"y":79}},{"Key":"S_END","Value":{"x":1062,"y":342}},{"Key":"S_INIT","Value":{"x":265,"y":81}},{"Key":"S_DRAW_CIRCLE","Value":{"x":494,"y":350}},{"Key":"S_DESTROY","Value":{"x":784,"y":346}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+Code %1
+@@@
+label_show=0
+label_text=@@@
+@@@
+option_delete_thisstring=0
+option_delete_br_string=0
+option_delete_bracket_string=0
+option_delete_s_state_string=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=45
+line_space=-4
+</t>
+  </si>
+  <si>
+    <t>/*
+    [[state]]
+    [[state-cmt]]
+*/
+[[state]](bFirst: boolean) {
+    if (bFirst) {
+        this.curstatename = '[[state]]';
+        // this.curstatecmt  = '[[state-cmt]]';
+        [[init]]
+    }
+    [[update]]
+    &lt;&lt;&lt;?wait
+    if (![[wait]]) { return; }
+    &gt;&gt;&gt;
+    [[post_wait]]
+    [[branch]]
+    &lt;&lt;&lt;?nextstate
+    if (!this.HasNextState()) {
+        this.SetNext(this.[[nextstate]]);
+    }
+    &gt;&gt;&gt;
+    &lt;&lt;&lt;?nowait
+    this.NoWait();
+    &gt;&gt;&gt;
+    if (this.HasNextState()) {
+        this.GoNext();
+    }
+}
+</t>
+  </si>
+  <si>
+    <t>; -----
+; 項目説明
+; -----
+[state]
+jpn=@@@
+ステート名を指定する。
+英文字、数字、アンダーバーで構成される。
+先頭は英文字およびアンダーバー。
+@@@
+en=@@@
+Specify a state name.
+The state name consits of alphabet, number and underbar except that the head characther should be alphabet or a underbar.
+@@@
+[thumbnail]
+jpn=@@@
+説明用のイメージを指定する。
+@@@
+en=@@@
+Specify a image for explanation of this state.
+@@@
+[init]
+jpn=@@@
+初期化用処理を指定する。
+@@@
+en=@@@
+Specify a initial process.
+@@@
+[update]
+jpn=@@@
+更新処理を指定する。
+@@@
+en=@@@
+Specify a update process.
+@@@
+[wait]
+jpn=@@@
+待ち条件を指定する。
+true時にループを解除する。
+@@@
+en=@@@
+Specify a waiting condition.
+Release the loop if the condition is true.
+@@@
+[post_wait]
+jpn=@@@
+'wait'後の処理を指定する。
+@@@
+en=@@@
+Specify the post process after 'wait'.
+@@@
+[branch]
+jpn=@@@
+分岐処理を指定する。
+１行に一つの分岐命令を書く。
+GUIにより上書きされるため引数は適当に指定する。
+例）
+br_YES(?);
+br_NO(?);
+br_UNKNOWN(?);
+@@@
+en=@@@
+Specify branch functions.
+Each line has a branch function.
+Specify a tentavie parameter for each branch function because GUI overwrites the parameter.
+i.e)
+br_YES(?);
+br_NO(?);
+br_UNKNOWN(?);
+@@@
+[nextstate]
+jpn=@@@
+次に実行するステートを指定する。
+@@@
+en=@@@
+Specify the next state to be executed.
+@@@
+[nowait]
+jpn=@@@
+次のステートへ同期待ちをせず実行する時に 'yes'を指定する。
+同期待ち時には何も指定しない。
+@@@
+en=@@@
+Specify 'yes' if the next state will be execute without a sync wait.
+Do not specify any word wheh the next state will be execute with a sync wait.
+@@@
+[!dir]
+jpn=@@@
+システムがステートのディレクトリ指定に使用。
+@@@
+en=@@@
+System uses this for the directory path of the state.
+@@@
+[!uuid]
+jpn=@@@
+システムがステートのuuid指定に使用。
+@@@
+en=@@@
+System uses this for the uuid of the state.
+@@@</t>
   </si>
 </sst>
 </file>
@@ -556,13 +919,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.39997558519242"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.79998168889431"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -686,108 +1049,108 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="8" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="3" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="3" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="3" xfId="5" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="6" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="1" xfId="6" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="4" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="4" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="3" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="3" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="6" xfId="3" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="3" xfId="5" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1073,112 +1436,85 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="28" t="s">
-        <v>40</v>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="28" t="s">
-        <v>39</v>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="28" t="s">
-        <v>38</v>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="28" t="s">
-        <v>37</v>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="false" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18.75"/>
@@ -1186,7 +1522,7 @@
     <col min="1" max="16384" width="15.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="144.75" customHeight="1">
+    <row r="1" ht="144.75" customHeight="true">
       <c r="A1" s="11"/>
       <c r="B1" s="12" t="s">
         <v>0</v>
@@ -1215,7 +1551,7 @@
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
     </row>
-    <row r="2" spans="1:25" s="4" customFormat="1">
+    <row r="2" s="4" customFormat="true">
       <c r="A2" s="13"/>
       <c r="B2" s="2" t="s">
         <v>20</v>
@@ -1256,7 +1592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3">
       <c r="A3" s="14"/>
       <c r="B3" s="15" t="s">
         <v>23</v>
@@ -1297,7 +1633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="18.75" customHeight="1">
+    <row r="4" ht="18.75" customHeight="true">
       <c r="A4" s="18"/>
       <c r="B4" s="19" t="s">
         <v>27</v>
@@ -1336,7 +1672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5">
       <c r="A5" s="20"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -1363,7 +1699,7 @@
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
     </row>
-    <row r="6" spans="1:25" ht="37.5" customHeight="1">
+    <row r="6" ht="37.5" customHeight="true">
       <c r="A6" s="20"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -1390,7 +1726,7 @@
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
     </row>
-    <row r="7" spans="1:25" ht="18.75" customHeight="1">
+    <row r="7" ht="18.75" customHeight="true">
       <c r="A7" s="20"/>
       <c r="B7" s="21" t="s">
         <v>29</v>
@@ -1423,7 +1759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8">
       <c r="A8" s="20"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -1450,7 +1786,7 @@
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
     </row>
-    <row r="9" spans="1:25" ht="18.75" customHeight="1">
+    <row r="9" ht="18.75" customHeight="true">
       <c r="A9" s="20"/>
       <c r="B9" s="21" t="s">
         <v>30</v>
@@ -1481,7 +1817,7 @@
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10">
       <c r="A10" s="20"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -1508,7 +1844,7 @@
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
     </row>
-    <row r="11" spans="1:25" ht="18.75" customHeight="1">
+    <row r="11" ht="18.75" customHeight="true">
       <c r="A11" s="20"/>
       <c r="B11" s="21" t="s">
         <v>31</v>
@@ -1539,7 +1875,7 @@
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12">
       <c r="A12" s="20"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -1566,7 +1902,7 @@
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
     </row>
-    <row r="13" spans="1:25" ht="18.75" customHeight="1">
+    <row r="13" ht="18.75" customHeight="true">
       <c r="A13" s="22"/>
       <c r="B13" s="23" t="s">
         <v>32</v>
@@ -1595,7 +1931,7 @@
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14">
       <c r="A14" s="24"/>
       <c r="B14" s="25" t="s">
         <v>33</v>
@@ -1624,7 +1960,7 @@
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
     </row>
-    <row r="15" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
+    <row r="15" ht="18.75" customHeight="true" thickBot="true">
       <c r="A15" s="26"/>
       <c r="B15" s="26" t="s">
         <v>12</v>
@@ -1659,7 +1995,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1686,7 +2022,7 @@
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
     </row>
-    <row r="17" spans="1:25" ht="18.75" customHeight="1">
+    <row r="17" ht="18.75" customHeight="true">
       <c r="A17" s="5"/>
       <c r="B17" s="27" t="s">
         <v>34</v>
@@ -1725,7 +2061,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="18.75" customHeight="1">
+    <row r="18" ht="18.75" customHeight="true">
       <c r="A18" s="5"/>
       <c r="B18" s="27" t="s">
         <v>35</v>
@@ -1764,12 +2100,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19">
       <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
+      <c r="B19" s="27" t="s">
+        <v>40</v>
+      </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="D19" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>42</v>
+      </c>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
@@ -1787,9 +2129,15 @@
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
+      <c r="W19" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="X19" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y19" s="27" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
